--- a/TEMOA_Europe_Results/2_Results_ct+_nuc-/_3_Electricity.xlsx
+++ b/TEMOA_Europe_Results/2_Results_ct+_nuc-/_3_Electricity.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="55">
   <si>
     <t>tech</t>
   </si>
@@ -137,9 +137,6 @@
     <t>ELC_WIN_OFF_NEW</t>
   </si>
   <si>
-    <t>ELC_SOL_PV_EXS</t>
-  </si>
-  <si>
     <t>ELC_SOL_PV_CEN_NEW</t>
   </si>
   <si>
@@ -149,22 +146,10 @@
     <t>ELC_SOL_CSP_3_NEW</t>
   </si>
   <si>
-    <t>ELC_MAR_EXS</t>
-  </si>
-  <si>
     <t>ELC_MAR_TDL_NEW</t>
   </si>
   <si>
-    <t>ELC_BIO_CRP_GSF_CCS_NEW</t>
-  </si>
-  <si>
-    <t>ELC_BIO_CRP_COM_CCS_NEW</t>
-  </si>
-  <si>
-    <t>ELC_BIO_GSF_CCS_NEW</t>
-  </si>
-  <si>
-    <t>ELC_BIO_COM_CCS_NEW</t>
+    <t>ELC_STG_CEN_BTT_NEW</t>
   </si>
   <si>
     <t>IMP_ELC_AFR</t>
@@ -177,6 +162,9 @@
   </si>
   <si>
     <t>IMP_ELC_MEA</t>
+  </si>
+  <si>
+    <t>IMP_ELC_CAC</t>
   </si>
   <si>
     <t>ELC_CEN</t>
@@ -597,7 +585,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L50"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -646,13 +634,13 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D2">
-        <v>2113.316643155</v>
+        <v>1967.145926676916</v>
       </c>
       <c r="E2">
-        <v>2113.316643155</v>
+        <v>1967.145926676917</v>
       </c>
       <c r="F2">
         <v>874.1022335999999</v>
@@ -661,7 +649,7 @@
         <v>582.7348224</v>
       </c>
       <c r="H2">
-        <v>291.3674111999999</v>
+        <v>291.3674111999998</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -684,13 +672,13 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D3">
-        <v>246.3066961437831</v>
+        <v>275.2997039596149</v>
       </c>
       <c r="E3">
-        <v>173.88602784</v>
+        <v>179.4533224807033</v>
       </c>
       <c r="F3">
         <v>130.41452088</v>
@@ -722,19 +710,19 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D4">
-        <v>783.3266607012179</v>
+        <v>900.5043693634691</v>
       </c>
       <c r="E4">
-        <v>813.2573290050004</v>
+        <v>953.8607508423802</v>
       </c>
       <c r="F4">
-        <v>691.5532455199999</v>
+        <v>691.5532455199995</v>
       </c>
       <c r="G4">
-        <v>99.35756376298741</v>
+        <v>121.8498566442663</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -760,16 +748,16 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D5">
         <v>1941.31571508</v>
       </c>
       <c r="E5">
-        <v>817.3960905599999</v>
+        <v>817.3960905599998</v>
       </c>
       <c r="F5">
-        <v>613.04706792</v>
+        <v>613.0470679200001</v>
       </c>
       <c r="G5">
         <v>408.69804528</v>
@@ -798,22 +786,22 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D6">
-        <v>597.2161249999996</v>
+        <v>597.2161250000004</v>
       </c>
       <c r="E6">
         <v>307.6302839999999</v>
       </c>
       <c r="F6">
-        <v>319.1705271992338</v>
+        <v>315.5783179110896</v>
       </c>
       <c r="G6">
         <v>153.815142</v>
       </c>
       <c r="H6">
-        <v>76.90757099999999</v>
+        <v>76.907571</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -836,16 +824,16 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D7">
-        <v>545.3581599199998</v>
+        <v>545.3581599199999</v>
       </c>
       <c r="E7">
-        <v>984.0236254400002</v>
+        <v>984.0236254400003</v>
       </c>
       <c r="F7">
-        <v>1687.152404880766</v>
+        <v>1690.74461416891</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -874,19 +862,19 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D8">
-        <v>237.242714875</v>
+        <v>237.2427148750001</v>
       </c>
       <c r="E8">
-        <v>173.6369646000001</v>
+        <v>173.6369646</v>
       </c>
       <c r="F8">
         <v>121.7100384</v>
       </c>
       <c r="G8">
-        <v>91.28252879999999</v>
+        <v>91.28252880000001</v>
       </c>
       <c r="H8">
         <v>60.8550192</v>
@@ -912,7 +900,7 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D9">
         <v>53.99728512499998</v>
@@ -950,16 +938,16 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>7.710740200000031</v>
+        <v>7.710740199999996</v>
       </c>
       <c r="F10">
-        <v>7.710740200000041</v>
+        <v>7.710740199999994</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -988,19 +976,19 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D11">
-        <v>696.4095484746837</v>
+        <v>1192.461611027955</v>
       </c>
       <c r="E11">
-        <v>803.5990583550146</v>
+        <v>824.9815939534108</v>
       </c>
       <c r="F11">
-        <v>729.1685014837716</v>
+        <v>764.7324696569013</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>9.281113509428575</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1026,28 +1014,28 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D12">
-        <v>1202.201122502677</v>
+        <v>706.1490599494052</v>
       </c>
       <c r="E12">
-        <v>783.1065785810425</v>
+        <v>784.4765618997258</v>
       </c>
       <c r="F12">
-        <v>658.9217669857716</v>
+        <v>623.3577988126418</v>
       </c>
       <c r="G12">
-        <v>1057.577611561101</v>
+        <v>1101.191101266206</v>
       </c>
       <c r="H12">
-        <v>822.4407620231543</v>
+        <v>827.9350859157259</v>
       </c>
       <c r="I12">
-        <v>555.0852364106172</v>
+        <v>552.9967726529029</v>
       </c>
       <c r="J12">
-        <v>277.6180536939086</v>
+        <v>276.5772131210952</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1064,19 +1052,19 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D13">
-        <v>26.76020017579999</v>
+        <v>26.7602001758</v>
       </c>
       <c r="E13">
-        <v>26.76020017579999</v>
+        <v>43.2</v>
       </c>
       <c r="F13">
         <v>43.2</v>
       </c>
       <c r="G13">
-        <v>26.76020017579999</v>
+        <v>26.7602001758</v>
       </c>
       <c r="H13">
         <v>37.19564503199999</v>
@@ -1085,13 +1073,13 @@
         <v>29.7565160256</v>
       </c>
       <c r="J13">
-        <v>29.55958777638666</v>
+        <v>40.53544813359767</v>
       </c>
       <c r="K13">
-        <v>29.55958777638666</v>
+        <v>29.55958777638667</v>
       </c>
       <c r="L13">
-        <v>15.72708758848754</v>
+        <v>15.68029427806012</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1102,16 +1090,16 @@
         <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>168.5435981152114</v>
+        <v>139.7849699041035</v>
       </c>
       <c r="F14">
-        <v>267.2807457180355</v>
+        <v>267.2807457180353</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1140,7 +1128,7 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1149,25 +1137,25 @@
         <v>196.4679812348915</v>
       </c>
       <c r="F15">
-        <v>363.4261504697829</v>
+        <v>363.4261504697828</v>
       </c>
       <c r="G15">
-        <v>1003.124122055909</v>
+        <v>994.3150065899949</v>
       </c>
       <c r="H15">
-        <v>1318.287176454767</v>
+        <v>1302.867975761889</v>
       </c>
       <c r="I15">
-        <v>1247.143262219507</v>
+        <v>1132.608672133368</v>
       </c>
       <c r="J15">
-        <v>1184.819192678454</v>
+        <v>1140.215741839489</v>
       </c>
       <c r="K15">
-        <v>1125.8945518254</v>
+        <v>1080.713318385571</v>
       </c>
       <c r="L15">
-        <v>1135.225028694746</v>
+        <v>1108.196276725657</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1178,16 +1166,16 @@
         <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D16">
-        <v>65.02834364399993</v>
+        <v>97.5645589723199</v>
       </c>
       <c r="E16">
-        <v>79.04801366351992</v>
+        <v>85.0541229575482</v>
       </c>
       <c r="F16">
-        <v>115.1993640283199</v>
+        <v>79.63539585519014</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1216,16 +1204,16 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D17">
-        <v>125.1409853786399</v>
+        <v>92.60477005031991</v>
       </c>
       <c r="E17">
-        <v>92.60477005031991</v>
+        <v>92.60477005031993</v>
       </c>
       <c r="F17">
-        <v>97.0134713143199</v>
+        <v>132.5774394874497</v>
       </c>
       <c r="G17">
         <v>193.6962900338398</v>
@@ -1234,16 +1222,16 @@
         <v>193.6962900338398</v>
       </c>
       <c r="I17">
-        <v>193.6962900338398</v>
+        <v>186.0970446217545</v>
       </c>
       <c r="J17">
-        <v>173.0499349368088</v>
+        <v>151.1523228362399</v>
       </c>
       <c r="K17">
         <v>207.6156218176054</v>
       </c>
       <c r="L17">
-        <v>126.1361142994162</v>
+        <v>123.1329196361841</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1254,34 +1242,34 @@
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D18">
-        <v>16.43979982420001</v>
+        <v>16.4397998242</v>
       </c>
       <c r="E18">
-        <v>16.43979982420001</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>16.43979982420001</v>
+        <v>16.4397998242</v>
       </c>
       <c r="H18">
         <v>6.004354968000008</v>
       </c>
       <c r="I18">
-        <v>13.44348397439928</v>
+        <v>13.4434839744</v>
       </c>
       <c r="J18">
-        <v>13.64041222361335</v>
+        <v>2.664551866402336</v>
       </c>
       <c r="K18">
         <v>13.64041222361334</v>
       </c>
       <c r="L18">
-        <v>27.47291241151247</v>
+        <v>27.51970572193989</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1292,13 +1280,13 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D19">
         <v>3212.26157332</v>
       </c>
       <c r="E19">
-        <v>2509.125632000012</v>
+        <v>2509.125632000006</v>
       </c>
       <c r="F19">
         <v>2101.5992</v>
@@ -1319,7 +1307,7 @@
         <v>716.3630860800001</v>
       </c>
       <c r="L19">
-        <v>358.1815430400003</v>
+        <v>358.1815430400002</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1330,34 +1318,34 @@
         <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D20">
-        <v>85.61842668000013</v>
+        <v>85.61842668000011</v>
       </c>
       <c r="E20">
-        <v>561.9843679999874</v>
+        <v>561.9843679999943</v>
       </c>
       <c r="F20">
-        <v>525.3907999999999</v>
+        <v>525.3907999999998</v>
       </c>
       <c r="G20">
-        <v>691.7462071199977</v>
+        <v>691.7462071199994</v>
       </c>
       <c r="H20">
-        <v>691.7462071199994</v>
+        <v>691.7462071199992</v>
       </c>
       <c r="I20">
+        <v>691.7462071199999</v>
+      </c>
+      <c r="J20">
         <v>691.7462071199993</v>
       </c>
-      <c r="J20">
-        <v>691.7462071200009</v>
-      </c>
       <c r="K20">
-        <v>691.7462071200007</v>
+        <v>691.7462071199997</v>
       </c>
       <c r="L20">
-        <v>691.7462071199999</v>
+        <v>691.7462071200002</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1368,22 +1356,22 @@
         <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D21">
-        <v>61.17722562854837</v>
+        <v>55.01307310430396</v>
       </c>
       <c r="E21">
-        <v>31.397926496</v>
+        <v>31.39792649599968</v>
       </c>
       <c r="F21">
-        <v>38.74859959709789</v>
+        <v>41.70247829802659</v>
       </c>
       <c r="G21">
         <v>15.698963248</v>
       </c>
       <c r="H21">
-        <v>7.849481623999996</v>
+        <v>7.849481623999999</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1406,7 +1394,7 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D22">
         <v>109.90296</v>
@@ -1444,22 +1432,22 @@
         <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D23">
-        <v>34.32481437145167</v>
+        <v>40.48896689569617</v>
       </c>
       <c r="E23">
-        <v>16.63145301386886</v>
+        <v>16.18899120682492</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>10.39551520963965</v>
+        <v>12.26237283126798</v>
       </c>
       <c r="H23">
-        <v>12.3569331737226</v>
+        <v>14.57602808245062</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1482,25 +1470,25 @@
         <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D24">
         <v>181.755</v>
       </c>
       <c r="E24">
-        <v>435.4382524901312</v>
+        <v>435.8807142971753</v>
       </c>
       <c r="F24">
-        <v>465.6836697214903</v>
+        <v>462.7297910205617</v>
       </c>
       <c r="G24">
-        <v>402.6736447444172</v>
+        <v>385.4539159201279</v>
       </c>
       <c r="H24">
-        <v>283.6542555100038</v>
+        <v>302.313873540777</v>
       </c>
       <c r="I24">
-        <v>147.2762653285518</v>
+        <v>141.2754242253912</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1520,7 +1508,7 @@
         <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1529,22 +1517,22 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>80.33595468141183</v>
+        <v>80.33595468141181</v>
       </c>
       <c r="G25">
         <v>146.1132101520001</v>
       </c>
       <c r="H25">
-        <v>55.25289459529417</v>
+        <v>55.25289459529414</v>
       </c>
       <c r="I25">
-        <v>63.35365172072468</v>
+        <v>77.17864641882356</v>
       </c>
       <c r="J25">
-        <v>55.25289459529417</v>
+        <v>55.25289459529547</v>
       </c>
       <c r="K25">
-        <v>75.24918025835301</v>
+        <v>75.24918025835171</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1558,7 +1546,7 @@
         <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D26">
         <v>137.54</v>
@@ -1570,13 +1558,13 @@
         <v>186.24</v>
       </c>
       <c r="G26">
-        <v>54.53447104345717</v>
+        <v>57.29766907022466</v>
       </c>
       <c r="H26">
-        <v>64.82399388184531</v>
+        <v>62.88351925025786</v>
       </c>
       <c r="I26">
-        <v>64.82399388184533</v>
+        <v>32.6488604890714</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -1596,7 +1584,7 @@
         <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1617,13 +1605,13 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>4.043249345111172</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>27.03043049374799</v>
+        <v>53.45682630193679</v>
       </c>
       <c r="L27">
-        <v>58.69681304192974</v>
+        <v>67.97633902876966</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1634,7 +1622,7 @@
         <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D28">
         <v>3.197683</v>
@@ -1649,7 +1637,7 @@
         <v>1.2790732</v>
       </c>
       <c r="H28">
-        <v>0.6395365999999998</v>
+        <v>0.6395365999999999</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -1672,7 +1660,7 @@
         <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D29">
         <v>21.712536</v>
@@ -1681,7 +1669,7 @@
         <v>18.61074514285714</v>
       </c>
       <c r="F29">
-        <v>15.68299921714286</v>
+        <v>15.50895428571429</v>
       </c>
       <c r="G29">
         <v>12.40716342857143</v>
@@ -1710,7 +1698,7 @@
         <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D30">
         <v>13.739781</v>
@@ -1719,16 +1707,16 @@
         <v>32.98110845714285</v>
       </c>
       <c r="F30">
-        <v>63.79839098285714</v>
+        <v>63.97243591428571</v>
       </c>
       <c r="G30">
-        <v>64.85709580717501</v>
+        <v>64.857095807175</v>
       </c>
       <c r="H30">
-        <v>24.525792532125</v>
+        <v>33.34793547380646</v>
       </c>
       <c r="I30">
-        <v>43.13425099300716</v>
+        <v>34.25824988614286</v>
       </c>
       <c r="J30">
         <v>11.75680848365357</v>
@@ -1737,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>7.558931202932172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1748,7 +1736,7 @@
         <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D31">
         <v>550.08</v>
@@ -1760,22 +1748,22 @@
         <v>1530.69</v>
       </c>
       <c r="G31">
-        <v>2468.279922474173</v>
+        <v>2427.127995178308</v>
       </c>
       <c r="H31">
-        <v>2902.11628047352</v>
+        <v>2717.942716894874</v>
       </c>
       <c r="I31">
-        <v>2718.122919554665</v>
+        <v>2589.690053455878</v>
       </c>
       <c r="J31">
-        <v>2955.617010207926</v>
+        <v>2569.686469830593</v>
       </c>
       <c r="K31">
-        <v>2242.783789437408</v>
+        <v>2513.371601795685</v>
       </c>
       <c r="L31">
-        <v>2631.266272791635</v>
+        <v>2653.170418652775</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1786,7 +1774,7 @@
         <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1798,22 +1786,22 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>3.897752397952035</v>
       </c>
       <c r="H32">
-        <v>41.43695395937327</v>
+        <v>295.9074142220016</v>
       </c>
       <c r="I32">
-        <v>398.191700384194</v>
+        <v>569.4984384331766</v>
       </c>
       <c r="J32">
-        <v>171.202051094107</v>
+        <v>645.3988465955244</v>
       </c>
       <c r="K32">
-        <v>989.2697552560799</v>
+        <v>785.0624207730451</v>
       </c>
       <c r="L32">
-        <v>756.8459799133933</v>
+        <v>905.3992674634039</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1824,7 +1812,7 @@
         <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1833,25 +1821,25 @@
         <v>126.62</v>
       </c>
       <c r="F33">
-        <v>259.57</v>
+        <v>259.5699999999999</v>
       </c>
       <c r="G33">
-        <v>972.6225741496801</v>
+        <v>949.3070188919743</v>
       </c>
       <c r="H33">
-        <v>1791.6789449618</v>
+        <v>1958.32073186712</v>
       </c>
       <c r="I33">
-        <v>2450.574089953363</v>
+        <v>2634.885724240077</v>
       </c>
       <c r="J33">
-        <v>2658.389510627117</v>
+        <v>3991.941254165313</v>
       </c>
       <c r="K33">
-        <v>3655.120968863696</v>
+        <v>4564.332443315349</v>
       </c>
       <c r="L33">
-        <v>3458.389223047154</v>
+        <v>4680.76350143221</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1862,7 +1850,7 @@
         <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1874,22 +1862,22 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>12.22292270763207</v>
       </c>
       <c r="H34">
-        <v>323.2073319891813</v>
+        <v>125.9035218609882</v>
       </c>
       <c r="I34">
-        <v>577.4920182573969</v>
+        <v>1551.364049805056</v>
       </c>
       <c r="J34">
-        <v>1547.559817506698</v>
+        <v>1909.920250655832</v>
       </c>
       <c r="K34">
-        <v>1139.98653591406</v>
+        <v>2140.160612514682</v>
       </c>
       <c r="L34">
-        <v>2336.693343707868</v>
+        <v>2892.733477676231</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1900,34 +1888,34 @@
         <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D35">
-        <v>4.830263455478399</v>
+        <v>164.23</v>
       </c>
       <c r="E35">
-        <v>2.4820497353088</v>
+        <v>361.68</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>583.6799999999998</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>1422.988607293186</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2017.187416008991</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>2207.360002165218</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>1767.478303404491</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>1319.617247085103</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>1198.547578203451</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1935,37 +1923,37 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D36">
-        <v>159.3997365445216</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>359.1979502646911</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>583.6799999999998</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>1432.0479041064</v>
+        <v>3.863097478814412</v>
       </c>
       <c r="H36">
-        <v>2129.74998232855</v>
+        <v>229.9342994129417</v>
       </c>
       <c r="I36">
-        <v>2349.549708459994</v>
+        <v>545.7676657667287</v>
       </c>
       <c r="J36">
-        <v>2473.903629171945</v>
+        <v>967.1934837513365</v>
       </c>
       <c r="K36">
-        <v>2451.124520675844</v>
+        <v>1412.647771178729</v>
       </c>
       <c r="L36">
-        <v>2113.849160139919</v>
+        <v>1690.066000435366</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1976,34 +1964,34 @@
         <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>1.053824976402666</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>12.26729255300808</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>12.44306259140809</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>11.26921382772484</v>
       </c>
       <c r="H37">
-        <v>48.84232754663762</v>
+        <v>10.05868158566332</v>
       </c>
       <c r="I37">
-        <v>223.8579942945168</v>
+        <v>6.71609817501125</v>
       </c>
       <c r="J37">
-        <v>295.44327229572</v>
+        <v>0</v>
       </c>
       <c r="K37">
-        <v>419.9571097390092</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>730.1230384275337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2014,34 +2002,34 @@
         <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>1.686175023597334</v>
       </c>
       <c r="E38">
-        <v>8.165391908303427</v>
+        <v>7.862707446991915</v>
       </c>
       <c r="F38">
-        <v>8.495391908303429</v>
+        <v>8.016937408591911</v>
       </c>
       <c r="G38">
-        <v>8.228836033103423</v>
+        <v>7.61783988044607</v>
       </c>
       <c r="H38">
-        <v>9.030802504873636</v>
+        <v>7.327119755136687</v>
       </c>
       <c r="I38">
-        <v>10.15684962670058</v>
+        <v>7.328450574336688</v>
       </c>
       <c r="J38">
-        <v>0.04393595519999906</v>
+        <v>7.574648960082533</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>7.327119755136689</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>0.140984841599997</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2052,7 +2040,7 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -2067,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>0.02567661119999945</v>
+        <v>0.004484419199999905</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0.01761600959999963</v>
+        <v>0.139654022399997</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>0.001330819199999972</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -2090,34 +2078,34 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D40">
-        <v>2.74</v>
+        <v>1.72</v>
       </c>
       <c r="E40">
-        <v>11.96460809169657</v>
+        <v>1.76</v>
       </c>
       <c r="F40">
-        <v>11.96460809169657</v>
+        <v>1.85</v>
       </c>
       <c r="G40">
-        <v>13.06186209627323</v>
+        <v>7.794563904000001</v>
       </c>
       <c r="H40">
-        <v>13.06186209627323</v>
+        <v>0.7854986880000008</v>
       </c>
       <c r="I40">
-        <v>12.8006111428026</v>
+        <v>0.6042297600000006</v>
       </c>
       <c r="J40">
-        <v>12.81209106358331</v>
+        <v>0</v>
       </c>
       <c r="K40">
-        <v>12.8006111428026</v>
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>0.1514903101946201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2128,25 +2116,25 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D41">
-        <v>0.0729444266666667</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>0.07294442666666671</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>0.04156456010062896</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>4.580919360000001</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>4.989625920000001</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>4.98962592</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -2169,31 +2157,31 @@
         <v>54</v>
       </c>
       <c r="D42">
-        <v>1.647055573333333</v>
+        <v>25.08</v>
       </c>
       <c r="E42">
-        <v>1.687055573333333</v>
+        <v>27.17</v>
       </c>
       <c r="F42">
-        <v>1.808435439899371</v>
+        <v>29.26</v>
       </c>
       <c r="G42">
-        <v>6.739759968201258</v>
+        <v>18.385834896</v>
       </c>
       <c r="H42">
-        <v>0.7854986880000008</v>
+        <v>24.42731256</v>
       </c>
       <c r="I42">
-        <v>0.6130598400000005</v>
+        <v>16.947730224</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>46.28176056</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>27.42398942400001</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>44.71675502400002</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2207,31 +2195,31 @@
         <v>54</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>175.75</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>190.475</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>205.2</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>53.56108929600001</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>69.856749648</v>
       </c>
       <c r="I43">
-        <v>1.533396527729688E-07</v>
+        <v>48.1212680544</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>57.75604262569897</v>
       </c>
       <c r="K43">
-        <v>1.398457256057344E-07</v>
+        <v>57.96275431660546</v>
       </c>
       <c r="L43">
-        <v>1.852342990650059E-07</v>
+        <v>138.2006421181923</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2245,13 +2233,13 @@
         <v>54</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>116.85</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>126.825</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>136.8</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -2269,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="L44">
-        <v>1.329548126721651E-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2283,31 +2271,31 @@
         <v>54</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>37.525</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>46.8825</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>56.23999999999999</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>59.32441944</v>
       </c>
       <c r="H45">
-        <v>2.534502405101759E-07</v>
+        <v>45.5466564</v>
       </c>
       <c r="I45">
-        <v>2.534502405101759E-07</v>
+        <v>22.78586376000001</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>31.26272238804425</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>24.69063816</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>29.54962038427949</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2336,7 +2324,7 @@
         <v>0</v>
       </c>
       <c r="I46">
-        <v>2.218607902436897E-07</v>
+        <v>0</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -2345,159 +2333,7 @@
         <v>0</v>
       </c>
       <c r="L46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47" t="s">
-        <v>50</v>
-      </c>
-      <c r="C47" t="s">
-        <v>58</v>
-      </c>
-      <c r="D47">
-        <v>25.08</v>
-      </c>
-      <c r="E47">
-        <v>27.17</v>
-      </c>
-      <c r="F47">
-        <v>29.25999999999999</v>
-      </c>
-      <c r="G47">
-        <v>18.385834896</v>
-      </c>
-      <c r="H47">
-        <v>24.42731256</v>
-      </c>
-      <c r="I47">
-        <v>16.947730224</v>
-      </c>
-      <c r="J47">
-        <v>7.857194400000001</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>57.90671856000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48" t="s">
-        <v>51</v>
-      </c>
-      <c r="C48" t="s">
-        <v>58</v>
-      </c>
-      <c r="D48">
-        <v>185</v>
-      </c>
-      <c r="E48">
-        <v>190.475</v>
-      </c>
-      <c r="F48">
-        <v>205.2</v>
-      </c>
-      <c r="G48">
-        <v>53.56108929600001</v>
-      </c>
-      <c r="H48">
-        <v>69.856749648</v>
-      </c>
-      <c r="I48">
-        <v>48.1212680544</v>
-      </c>
-      <c r="J48">
-        <v>14.6343817152</v>
-      </c>
-      <c r="K48">
-        <v>52.1080026558422</v>
-      </c>
-      <c r="L48">
-        <v>130.3356052976846</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
-      <c r="A49" s="1">
-        <v>47</v>
-      </c>
-      <c r="B49" t="s">
-        <v>52</v>
-      </c>
-      <c r="C49" t="s">
-        <v>58</v>
-      </c>
-      <c r="D49">
-        <v>116.85</v>
-      </c>
-      <c r="E49">
-        <v>126.825</v>
-      </c>
-      <c r="F49">
-        <v>136.8</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
-      <c r="A50" s="1">
-        <v>48</v>
-      </c>
-      <c r="B50" t="s">
-        <v>53</v>
-      </c>
-      <c r="C50" t="s">
-        <v>58</v>
-      </c>
-      <c r="D50">
-        <v>37.525</v>
-      </c>
-      <c r="E50">
-        <v>46.8825</v>
-      </c>
-      <c r="F50">
-        <v>56.23999999999999</v>
-      </c>
-      <c r="G50">
-        <v>59.32441944</v>
-      </c>
-      <c r="H50">
-        <v>45.5466564</v>
-      </c>
-      <c r="I50">
-        <v>22.78586376</v>
-      </c>
-      <c r="J50">
-        <v>3.291467826375548</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <v>48.37149360000001</v>
+        <v>4.761936</v>
       </c>
     </row>
   </sheetData>
